--- a/SPPSApi/Doc/Template/FS0807.xlsx
+++ b/SPPSApi/Doc/Template/FS0807.xlsx
@@ -167,8 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,7 +478,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="4" width="10.875" customWidth="1"/>
     <col min="6" max="7" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
@@ -494,7 +495,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
